--- a/vt1.xlsx
+++ b/vt1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BGH\OneDrive\Documentos\DOCUMENTOS GUSTAVO\PYTHON\WORKSPACEPYTHON\GIT_GITHUB-CURSE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BGH\OneDrive\Documentos\DOCUMENTOS GUSTAVO\PYTHON\WORKSPACEPYTHON\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="29">
   <si>
     <t xml:space="preserve">Día </t>
   </si>
@@ -107,36 +107,6 @@
   </si>
   <si>
     <t>DIAST</t>
-  </si>
-  <si>
-    <t>1020 0</t>
-  </si>
-  <si>
-    <t>1013 0</t>
-  </si>
-  <si>
-    <t>1009 0</t>
-  </si>
-  <si>
-    <t>1005 0</t>
-  </si>
-  <si>
-    <t>997 0</t>
-  </si>
-  <si>
-    <t>993 0</t>
-  </si>
-  <si>
-    <t>995 0</t>
-  </si>
-  <si>
-    <t>1003 0</t>
-  </si>
-  <si>
-    <t>999 0</t>
-  </si>
-  <si>
-    <t>994 0</t>
   </si>
 </sst>
 </file>
@@ -268,40 +238,40 @@
                   <c:v>10220,00</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1020 0</c:v>
+                  <c:v>10220,00</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1013 0</c:v>
+                  <c:v>10220,00</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1009 0</c:v>
+                  <c:v>10220,00</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1005 0</c:v>
+                  <c:v>10220,00</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>997 0</c:v>
+                  <c:v>10220,00</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>997 0</c:v>
+                  <c:v>10220,00</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>993 0</c:v>
+                  <c:v>10220,00</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>995 0</c:v>
+                  <c:v>10220,00</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1003 0</c:v>
+                  <c:v>10220,00</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1003 0</c:v>
+                  <c:v>10220,00</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1005 0</c:v>
+                  <c:v>10220,00</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>999 0</c:v>
+                  <c:v>10220,00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -409,43 +379,43 @@
                   <c:v>10220</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>10220</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>10220</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>10220</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>10220</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>10220</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>10220</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>10220</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>10220</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>10220</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>10220</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>10220</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>10220</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>10220</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -460,11 +430,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="282527672"/>
-        <c:axId val="282528456"/>
+        <c:axId val="139932896"/>
+        <c:axId val="139929368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="282527672"/>
+        <c:axId val="139932896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -521,15 +491,14 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="282528456"/>
+        <c:crossAx val="139929368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="282528456"/>
+        <c:axId val="139929368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.0000000000000002E-2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -584,7 +553,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="282527672"/>
+        <c:crossAx val="139932896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1025,11 +994,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="305946712"/>
-        <c:axId val="305949848"/>
+        <c:axId val="139929760"/>
+        <c:axId val="139933288"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="305946712"/>
+        <c:axId val="139929760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1086,14 +1055,14 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="305949848"/>
+        <c:crossAx val="139933288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="305949848"/>
+        <c:axId val="139933288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1150,7 +1119,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="305946712"/>
+        <c:crossAx val="139929760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2584,8 +2553,8 @@
   </sheetPr>
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2742,8 +2711,8 @@
       <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>29</v>
+      <c r="D12" s="7">
+        <v>10220</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -2756,8 +2725,8 @@
       <c r="C13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>30</v>
+      <c r="D13" s="7">
+        <v>10220</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -2770,8 +2739,8 @@
       <c r="C14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>31</v>
+      <c r="D14" s="7">
+        <v>10220</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -2784,8 +2753,8 @@
       <c r="C15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>32</v>
+      <c r="D15" s="7">
+        <v>10220</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -2798,8 +2767,8 @@
       <c r="C16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>33</v>
+      <c r="D16" s="7">
+        <v>10220</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -2812,8 +2781,8 @@
       <c r="C17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>33</v>
+      <c r="D17" s="7">
+        <v>10220</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -2826,8 +2795,8 @@
       <c r="C18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>34</v>
+      <c r="D18" s="7">
+        <v>10220</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -2840,8 +2809,8 @@
       <c r="C19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>35</v>
+      <c r="D19" s="7">
+        <v>10220</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -2854,8 +2823,8 @@
       <c r="C20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>36</v>
+      <c r="D20" s="7">
+        <v>10220</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -2868,8 +2837,8 @@
       <c r="C21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>36</v>
+      <c r="D21" s="7">
+        <v>10220</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -2882,8 +2851,8 @@
       <c r="C22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>32</v>
+      <c r="D22" s="7">
+        <v>10220</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -2896,8 +2865,8 @@
       <c r="C23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>37</v>
+      <c r="D23" s="7">
+        <v>10220</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -2910,8 +2879,8 @@
       <c r="C24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>38</v>
+      <c r="D24" s="7">
+        <v>10220</v>
       </c>
     </row>
   </sheetData>
